--- a/data/trans_dic/P15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>4,34; 10,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>4,31; 9,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>5,73; 13,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>3,0; 9,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>6,74; 14,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>7,78; 13,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>4,46; 8,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,47; 11,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>7,66; 12,16</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>2,54; 6,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>4,54; 8,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,43; 5,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,88; 7,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,21; 5,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,06; 8,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,64; 5,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>4,7; 8,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,75; 5,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,67; 7,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,38; 4,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>4,45; 7,26</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>6,91; 13,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>12,84; 20,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>4,74; 10,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>4,51; 9,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,77; 7,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>8,92; 16,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>2,23; 6,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,62; 10,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,37; 9,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>11,79; 17,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,07; 7,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>5,86; 9,01</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,97%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>8,34; 14,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>8,01; 13,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>7,47; 14,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>4,36; 12,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>3,46; 8,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,79; 8,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>6,43; 13,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,76; 8,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>6,53; 10,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,04; 10,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>7,68; 12,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>4,07; 8,75</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>6,18; 14,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>3,43; 9,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>2,6; 8,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,95; 8,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>3,23; 10,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>5,56; 13,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0,51; 5,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>5,34; 10,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>5,49; 10,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,03; 5,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,96; 3,95</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,12%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>4,46; 10,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>7,74; 15,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>7,06; 14,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>7,09; 13,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>4,88; 11,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>8,86; 17,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>9,1; 17,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>8,19; 13,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,41; 9,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>9,14; 15,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>9,67; 15,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>7,96; 12,28</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,26; 9,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>7,8; 12,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,64; 5,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,16; 9,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,43; 5,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>6,6; 10,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,63; 5,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,19; 8,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>4,25; 6,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,83; 10,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,05; 5,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,98; 8,44</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,82; 8,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,02; 4,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,11; 6,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,27; 5,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,48; 7,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,01; 4,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,18; 4,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,87; 5,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>5,19; 7,77</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,33; 4,16</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,95; 4,82</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,87; 4,84</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,57; 8,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,41; 9,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,05; 6,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,18; 7,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,49; 6,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,34; 8,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,67; 6,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,31; 6,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,66; 6,94</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,15; 8,54</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,1; 6,21</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,49; 6,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,21; 17,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,41</t>
+          <t>5,75; 14,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,34; 13,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,31</t>
+          <t>7,52; 12,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,62; 14,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 12,16</t>
+          <t>7,32; 12,29</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,58%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,35</t>
+          <t>2,88; 7,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,67</t>
+          <t>4,64; 8,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,26</t>
+          <t>4,33; 7,21</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,24%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 9,46</t>
+          <t>4,45; 9,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,61</t>
+          <t>5,58; 10,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 9,01</t>
+          <t>5,77; 8,97</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 13,09</t>
+          <t>6,09; 12,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 12,77</t>
+          <t>4,24; 12,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,69</t>
+          <t>2,73; 7,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 8,31</t>
+          <t>1,96; 7,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 10,15</t>
+          <t>4,74; 8,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,75</t>
+          <t>3,34; 7,87</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 8,72</t>
+          <t>1,88; 8,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,95</t>
+          <t>0,93; 3,78</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,09; 13,41</t>
+          <t>7,03; 13,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,19; 13,66</t>
+          <t>8,18; 13,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 12,28</t>
+          <t>7,89; 12,22</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,35%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,63</t>
+          <t>5,07; 9,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,96</t>
+          <t>2,71; 8,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,44</t>
+          <t>3,88; 7,95</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,38</t>
+          <t>1,2; 4,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,52</t>
+          <t>2,89; 5,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,84</t>
+          <t>1,96; 4,4</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,18; 7,07</t>
+          <t>4,52; 6,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,31; 6,88</t>
+          <t>4,81; 6,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,49; 6,72</t>
+          <t>4,95; 6,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,4</t>
+          <t>4,4; 10,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 17,1</t>
+          <t>8,72; 16,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 9,97</t>
+          <t>3,98; 9,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 14,18</t>
+          <t>5,79; 14,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 9,68</t>
+          <t>3,2; 9,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 13,67</t>
+          <t>6,43; 13,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,74; 14,21</t>
+          <t>7,31; 14,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,87</t>
+          <t>7,66; 12,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,76</t>
+          <t>4,44; 8,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,62; 14,14</t>
+          <t>8,67; 14,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 11,31</t>
+          <t>6,4; 11,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,29</t>
+          <t>7,6; 12,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,39</t>
+          <t>2,55; 6,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 8,77</t>
+          <t>4,46; 8,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,87</t>
+          <t>2,24; 5,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,45</t>
+          <t>2,83; 7,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,58</t>
+          <t>2,18; 5,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,28</t>
+          <t>3,98; 8,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,07</t>
+          <t>1,74; 4,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,45</t>
+          <t>4,79; 8,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,29</t>
+          <t>2,79; 5,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,63</t>
+          <t>4,67; 7,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,71</t>
+          <t>2,34; 4,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,21</t>
+          <t>4,26; 7,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 13,89</t>
+          <t>6,9; 13,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 20,29</t>
+          <t>12,76; 20,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,36</t>
+          <t>4,89; 10,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,5</t>
+          <t>4,49; 9,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,59</t>
+          <t>2,7; 7,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,92; 16,11</t>
+          <t>8,81; 16,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,75</t>
+          <t>2,18; 6,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,51</t>
+          <t>5,64; 10,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,69</t>
+          <t>5,39; 9,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 17,34</t>
+          <t>11,66; 16,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,6</t>
+          <t>4,03; 7,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 8,97</t>
+          <t>5,69; 9,09</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 14,38</t>
+          <t>7,97; 14,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 12,51</t>
+          <t>5,87; 12,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 14,46</t>
+          <t>7,2; 14,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 12,63</t>
+          <t>4,44; 12,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 8,21</t>
+          <t>3,57; 8,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,31</t>
+          <t>2,76; 6,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 13,39</t>
+          <t>6,49; 12,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,02</t>
+          <t>1,94; 6,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,4</t>
+          <t>6,31; 10,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,74</t>
+          <t>4,61; 8,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,33</t>
+          <t>7,88; 12,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,87</t>
+          <t>3,39; 7,89</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 14,37</t>
+          <t>6,07; 14,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,97</t>
+          <t>3,33; 10,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,22</t>
+          <t>2,6; 8,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,14</t>
+          <t>1,9; 8,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 10,77</t>
+          <t>3,34; 10,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,56; 13,46</t>
+          <t>5,57; 13,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,25</t>
+          <t>0,51; 4,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,9</t>
+          <t>5,49; 10,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,51</t>
+          <t>5,71; 10,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,64</t>
+          <t>2,01; 5,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,78</t>
+          <t>0,98; 3,77</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,93</t>
+          <t>4,32; 10,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,74; 15,66</t>
+          <t>7,86; 15,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 14,59</t>
+          <t>7,46; 15,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,41</t>
+          <t>6,96; 13,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,88; 11,61</t>
+          <t>4,82; 11,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,86; 17,29</t>
+          <t>9,56; 17,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,1; 17,66</t>
+          <t>9,56; 18,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,18; 13,57</t>
+          <t>8,0; 13,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,87</t>
+          <t>5,66; 10,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,14; 15,01</t>
+          <t>9,37; 14,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,67; 15,24</t>
+          <t>9,54; 15,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,22</t>
+          <t>8,23; 12,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,26; 9,88</t>
+          <t>5,42; 9,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,8; 12,87</t>
+          <t>7,83; 12,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,79</t>
+          <t>2,71; 5,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,58</t>
+          <t>4,98; 9,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,53</t>
+          <t>2,47; 5,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,6; 10,88</t>
+          <t>6,76; 10,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,72</t>
+          <t>2,59; 5,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,57</t>
+          <t>3,02; 8,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,84</t>
+          <t>4,32; 6,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,83; 10,87</t>
+          <t>7,84; 11,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,17</t>
+          <t>3,05; 5,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,95</t>
+          <t>3,81; 8,05</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,39</t>
+          <t>4,95; 8,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,63</t>
+          <t>1,91; 4,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,22</t>
+          <t>3,13; 6,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,46</t>
+          <t>1,05; 4,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,96</t>
+          <t>4,65; 8,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,56</t>
+          <t>2,08; 4,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,63</t>
+          <t>2,13; 4,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,46</t>
+          <t>2,92; 5,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,77</t>
+          <t>5,1; 7,57</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,16</t>
+          <t>2,28; 4,12</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,82</t>
+          <t>2,98; 4,94</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,4</t>
+          <t>1,93; 4,44</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,42</t>
+          <t>6,51; 8,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,41; 9,5</t>
+          <t>7,42; 9,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,75</t>
+          <t>5,08; 6,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,85</t>
+          <t>4,51; 6,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,02</t>
+          <t>4,47; 6,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,16</t>
+          <t>6,37; 8,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,28</t>
+          <t>4,71; 6,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,81; 6,62</t>
+          <t>4,85; 6,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,66; 6,94</t>
+          <t>5,69; 6,93</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7,15; 8,54</t>
+          <t>7,13; 8,48</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,1; 6,21</t>
+          <t>5,11; 6,22</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,48</t>
+          <t>4,98; 6,49</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18825</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37037</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19206</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28092</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14922</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27623</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>30188</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28977</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>33747</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>64660</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49394</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>57069</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12019; 27717</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25706; 48917</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11689; 29326</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18039; 44618</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8336; 24646</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18470; 40046</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21097; 42654</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22189; 36983</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23676; 46501</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>50430; 83036</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>37280; 65996</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45678; 74381</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19941</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32028</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19415</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24343</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18499</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30256</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15878</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>33363</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>38440</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>62284</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>35293</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>57705</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12553; 33170</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22545; 45373</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11260; 29066</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14655; 38177</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11008; 27814</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20837; 42667</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9122; 25182</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24669; 44704</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27825; 54172</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>48077; 81272</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23975; 49436</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>44004; 75172</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>31480</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>52853</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23231</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21332</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15486</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40911</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13881</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26796</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>46966</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>93764</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>37112</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>48128</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22011; 43919</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>41356; 66452</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15562; 34703</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14203; 30764</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9055; 25955</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30044; 55310</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7335; 21949</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19707; 36225</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35278; 62083</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>77572; 112011</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26397; 50471</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>37869; 60443</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>39748</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32708</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>38392</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23751</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20512</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17436</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>36371</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18212</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>60260</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>50145</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>74763</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>41964</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>28581; 52032</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21951; 46210</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26638; 52060</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13869; 39220</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13250; 30814</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10725; 26822</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>25139; 49946</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9207; 31542</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>46079; 76929</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35176; 65374</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59688; 93974</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>26734; 62230</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19494</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13172</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10124</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7113</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12776</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19798</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>32269</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32971</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14657</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7653</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12349; 29294</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7081; 21662</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5491; 16930</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3391; 14839</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6944; 21574</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12231; 29820</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1118; 10366</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2969</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22582; 44813</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24674; 46047</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8658; 23941</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3780; 14609</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>19689</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>30351</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>28224</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>26033</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>21315</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>35415</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>36459</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26997</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>41003</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>65766</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>64683</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>53030</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11702; 29460</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>21540; 42948</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>19630; 39925</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>18755; 36162</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>13419; 32011</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>26767; 47781</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26121; 49609</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20556; 34762</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>31094; 55957</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>51901; 83055</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>51142; 81735</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>43352; 67049</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>45149</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>65751</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>26436</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>43439</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>24093</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>59675</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>27407</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>50106</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>69242</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>125426</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>53843</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>93546</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>33345; 61186</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>51871; 82609</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>17787; 39137</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>31085; 59177</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>15792; 36233</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>46890; 75912</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17903; 39211</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>25607; 72190</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>54167; 86684</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>106416; 149941</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>41044; 70661</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>56076; 118634</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>48731</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>24013</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>34606</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>25955</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>47788</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>26357</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>26736</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>28612</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>96519</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>50370</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>61342</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>54567</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>36840; 65832</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>14882; 36256</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>24377; 47205</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>9780; 41033</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>36405; 63651</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>17141; 38780</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>17608; 39328</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>20986; 38853</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>77936; 115686</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>36577; 66079</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>47824; 79336</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>31824; 73064</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>243056</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>287913</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>199634</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>200059</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>175391</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>257472</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>191453</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>213603</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>418447</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>545385</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>391087</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>413662</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>213412; 272920</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>254257; 323070</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>172348; 227456</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>156189; 237795</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>151081; 206321</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>226504; 290278</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>166967; 219653</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>177727; 248580</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>379017; 461354</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>498305; 592513</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>354579; 431587</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>354667; 462516</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>